--- a/data/trans_dic/P25C$otraforma_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01309094877899528</v>
+        <v>0.01460774201866215</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01410287698208234</v>
+        <v>0.01331794939069014</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0759969776764174</v>
+        <v>0.0752050157515676</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07444825280470417</v>
+        <v>0.05989925245623209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06368444078813972</v>
+        <v>0.06396748999698523</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.04869981825134529</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03522020347896061</v>
+        <v>0.0352202034789606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04330121704071277</v>
+        <v>0.04330121704071278</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02946953148906789</v>
+        <v>0.02769613428114084</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01869616998868327</v>
+        <v>0.01823223469495265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02963019219714348</v>
+        <v>0.02970136709133614</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08412379482176569</v>
+        <v>0.08013478927925678</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06146781970428829</v>
+        <v>0.06210932368734561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06220035236843168</v>
+        <v>0.06295399406016905</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01229951355896526</v>
+        <v>0.01332714330595803</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01153035797222713</v>
+        <v>0.01077324933659995</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0723974992395465</v>
+        <v>0.07887574071060487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0501102376300953</v>
+        <v>0.04700016819607766</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05284854504417738</v>
+        <v>0.05272838849874052</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0421502369927401</v>
+        <v>0.04215023699274009</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02710745726290776</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02852613123589618</v>
+        <v>0.02768300024650348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01479368796978424</v>
+        <v>0.01514129057377612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02666466823440048</v>
+        <v>0.02709340820266626</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06155337925894552</v>
+        <v>0.05936449643491423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04395454643827157</v>
+        <v>0.04428560412639843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04927243308887769</v>
+        <v>0.04999008529318062</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2306</v>
+        <v>2573</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3147</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13385</v>
+        <v>13245</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3503</v>
+        <v>2818</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14213</v>
+        <v>14276</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9798</v>
+        <v>9209</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4153</v>
+        <v>4050</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16433</v>
+        <v>16473</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27970</v>
+        <v>26644</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13653</v>
+        <v>13796</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34497</v>
+        <v>34915</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1829</v>
+        <v>1982</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2817</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10765</v>
+        <v>11728</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4790</v>
+        <v>4493</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12910</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18750</v>
+        <v>18196</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5396</v>
+        <v>5523</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27253</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40459</v>
+        <v>39020</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16033</v>
+        <v>16154</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50359</v>
+        <v>51093</v>
       </c>
     </row>
     <row r="20">
